--- a/صيدليات دكتور مصطفي طلعت_2025-12-24_08-43.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2025-12-24_08-43.xlsx
@@ -44,18 +44,21 @@
     <t>1 2 3 (ONE TWO THREE) SYRUP 120 ML</t>
   </si>
   <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
     <t>1:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>32.00</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
     <t>1.2.3 EXTRA TAB</t>
   </si>
   <si>
@@ -69,9 +72,6 @@
   </si>
   <si>
     <t>QANDOVERAL 200 MG 40 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>0:0</t>
   </si>
   <si>
     <t>812.00</t>
@@ -766,7 +766,7 @@
         <v>14</v>
       </c>
       <c t="s" r="Q7" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" ht="24.75" customHeight="1">
@@ -775,7 +775,7 @@
       </c>
       <c r="B8" s="7"/>
       <c t="s" r="C8" s="8">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -788,18 +788,18 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -808,14 +808,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -832,7 +832,7 @@
         <v>22</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -865,7 +865,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -898,7 +898,7 @@
         <v>28</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" ht="26.25" customHeight="1">
